--- a/data/pca/factorExposure/factorExposure_2015-02-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01897383430836551</v>
+        <v>-0.01079745126234826</v>
       </c>
       <c r="C2">
-        <v>-0.03847120605529207</v>
+        <v>-0.05524672772888039</v>
       </c>
       <c r="D2">
-        <v>0.1130404250599554</v>
+        <v>-0.08634987084939871</v>
       </c>
       <c r="E2">
-        <v>0.06864591825799242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.07139761598487084</v>
+      </c>
+      <c r="F2">
+        <v>-0.0330579377301834</v>
+      </c>
+      <c r="G2">
+        <v>0.1495688699964774</v>
+      </c>
+      <c r="H2">
+        <v>-0.0526602864120415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04576014536240416</v>
+        <v>-0.02048708608798888</v>
       </c>
       <c r="C4">
-        <v>-0.07951842599101032</v>
+        <v>-0.1148917187039752</v>
       </c>
       <c r="D4">
-        <v>0.08058857671299741</v>
+        <v>-0.09484384311182091</v>
       </c>
       <c r="E4">
-        <v>0.1334244319098094</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.07966443055226802</v>
+      </c>
+      <c r="F4">
+        <v>-0.09400605266126939</v>
+      </c>
+      <c r="G4">
+        <v>0.01760536485521132</v>
+      </c>
+      <c r="H4">
+        <v>0.06763544607968373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02920351450372286</v>
+        <v>-0.03369675198724086</v>
       </c>
       <c r="C6">
-        <v>-0.02092037696993171</v>
+        <v>-0.03958866087496329</v>
       </c>
       <c r="D6">
-        <v>0.09375803593903813</v>
+        <v>-0.07796334955501504</v>
       </c>
       <c r="E6">
-        <v>0.09367817276812208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.1052555533410328</v>
+      </c>
+      <c r="F6">
+        <v>-0.03962657965797093</v>
+      </c>
+      <c r="G6">
+        <v>-0.007764286939529995</v>
+      </c>
+      <c r="H6">
+        <v>-0.01472382995499131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003316671293054393</v>
+        <v>-0.005497674662899895</v>
       </c>
       <c r="C7">
-        <v>-0.032814816905981</v>
+        <v>-0.04591430381268331</v>
       </c>
       <c r="D7">
-        <v>0.07627171579794045</v>
+        <v>-0.05757273875673635</v>
       </c>
       <c r="E7">
-        <v>0.03951261889454863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08936764114970855</v>
+      </c>
+      <c r="F7">
+        <v>-0.009103721894553007</v>
+      </c>
+      <c r="G7">
+        <v>0.003187238157208538</v>
+      </c>
+      <c r="H7">
+        <v>0.03292811116317481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.000725172443242587</v>
+        <v>0.004886540790476903</v>
       </c>
       <c r="C8">
-        <v>-0.02902489956690862</v>
+        <v>-0.03747124034860248</v>
       </c>
       <c r="D8">
-        <v>0.06424493102472482</v>
+        <v>-0.04763060595645206</v>
       </c>
       <c r="E8">
-        <v>0.07616103532196453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.06237950023565301</v>
+      </c>
+      <c r="F8">
+        <v>-0.05358566877501377</v>
+      </c>
+      <c r="G8">
+        <v>0.07174126220808426</v>
+      </c>
+      <c r="H8">
+        <v>0.03756575700381481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03408137736568589</v>
+        <v>-0.01424500403971026</v>
       </c>
       <c r="C9">
-        <v>-0.06931996235454613</v>
+        <v>-0.09434882473973977</v>
       </c>
       <c r="D9">
-        <v>0.08602224150834574</v>
+        <v>-0.0816767025882567</v>
       </c>
       <c r="E9">
-        <v>0.1126932695402212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.07072543797847899</v>
+      </c>
+      <c r="F9">
+        <v>-0.06320231994924012</v>
+      </c>
+      <c r="G9">
+        <v>0.002992830230581155</v>
+      </c>
+      <c r="H9">
+        <v>0.02159257728140213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1974691579602101</v>
+        <v>-0.2447512826078277</v>
       </c>
       <c r="C10">
-        <v>0.157631952161807</v>
+        <v>0.09241258891362902</v>
       </c>
       <c r="D10">
-        <v>-0.04694044243037511</v>
+        <v>0.009081977383497102</v>
       </c>
       <c r="E10">
-        <v>0.01677835398404994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02529804054242079</v>
+      </c>
+      <c r="F10">
+        <v>-0.04115749636122124</v>
+      </c>
+      <c r="G10">
+        <v>-0.01300328104183622</v>
+      </c>
+      <c r="H10">
+        <v>0.004054445223979826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01234882094152443</v>
+        <v>-0.009810239260538938</v>
       </c>
       <c r="C11">
-        <v>-0.0435014761562807</v>
+        <v>-0.06177894116568437</v>
       </c>
       <c r="D11">
-        <v>0.03917453734976124</v>
+        <v>-0.02736318467361176</v>
       </c>
       <c r="E11">
-        <v>-0.003727093492802424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04449945404056237</v>
+      </c>
+      <c r="F11">
+        <v>0.009122734211671904</v>
+      </c>
+      <c r="G11">
+        <v>0.0005223019681087626</v>
+      </c>
+      <c r="H11">
+        <v>0.01916234433902259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01083316145149859</v>
+        <v>-0.009680719121309463</v>
       </c>
       <c r="C12">
-        <v>-0.04516984350177349</v>
+        <v>-0.05310596205324777</v>
       </c>
       <c r="D12">
-        <v>0.05003396802171161</v>
+        <v>-0.03400183803274451</v>
       </c>
       <c r="E12">
-        <v>0.01421163189480045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03812105338002244</v>
+      </c>
+      <c r="F12">
+        <v>0.01111132084365997</v>
+      </c>
+      <c r="G12">
+        <v>-0.004349390956477033</v>
+      </c>
+      <c r="H12">
+        <v>-0.01665200320989044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01028219481278815</v>
+        <v>-0.004397200335679572</v>
       </c>
       <c r="C13">
-        <v>-0.03146847434251341</v>
+        <v>-0.06165901433948854</v>
       </c>
       <c r="D13">
-        <v>0.1087494540942653</v>
+        <v>-0.1278703328665751</v>
       </c>
       <c r="E13">
-        <v>0.09846241454884387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1001415615707483</v>
+      </c>
+      <c r="F13">
+        <v>-0.04106912131596333</v>
+      </c>
+      <c r="G13">
+        <v>0.05278243645702932</v>
+      </c>
+      <c r="H13">
+        <v>-0.07306434318020702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01351099803370287</v>
+        <v>-0.001385341591867555</v>
       </c>
       <c r="C14">
-        <v>-0.02043517896672387</v>
+        <v>-0.0339383521068494</v>
       </c>
       <c r="D14">
-        <v>0.06110139218948198</v>
+        <v>-0.06419842757459718</v>
       </c>
       <c r="E14">
-        <v>0.04852468817374673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.1088198543148263</v>
+      </c>
+      <c r="F14">
+        <v>-0.03765478834676374</v>
+      </c>
+      <c r="G14">
+        <v>0.02097886261175562</v>
+      </c>
+      <c r="H14">
+        <v>-0.03436676313997728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003183674283716869</v>
+        <v>0.004013392084450374</v>
       </c>
       <c r="C15">
-        <v>-0.01247725151675621</v>
+        <v>-0.03081315697849335</v>
       </c>
       <c r="D15">
-        <v>0.04525387572927017</v>
+        <v>-0.05278516994257189</v>
       </c>
       <c r="E15">
-        <v>0.02537764851778082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.05207600225051887</v>
+      </c>
+      <c r="F15">
+        <v>-0.01155119820840203</v>
+      </c>
+      <c r="G15">
+        <v>0.0248832480688351</v>
+      </c>
+      <c r="H15">
+        <v>0.01107532685907741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01165963314782721</v>
+        <v>-0.009010493361630257</v>
       </c>
       <c r="C16">
-        <v>-0.04095552142265531</v>
+        <v>-0.05373164082198773</v>
       </c>
       <c r="D16">
-        <v>0.04179639310716339</v>
+        <v>-0.03099797234312592</v>
       </c>
       <c r="E16">
-        <v>0.009650191446910398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04256545517189492</v>
+      </c>
+      <c r="F16">
+        <v>0.006228475420710812</v>
+      </c>
+      <c r="G16">
+        <v>-0.01363096404985802</v>
+      </c>
+      <c r="H16">
+        <v>0.007069924596261247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003079686226147024</v>
+        <v>0.0039773589561722</v>
       </c>
       <c r="C19">
-        <v>-0.02390332865342873</v>
+        <v>-0.01732748832306729</v>
       </c>
       <c r="D19">
-        <v>0.05111257560062013</v>
+        <v>-0.02868965106469353</v>
       </c>
       <c r="E19">
-        <v>0.04201816005460574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.008973777139542128</v>
+      </c>
+      <c r="F19">
+        <v>-0.008188661773521202</v>
+      </c>
+      <c r="G19">
+        <v>0.02432179291547502</v>
+      </c>
+      <c r="H19">
+        <v>-0.01325741176689948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0003396647857541859</v>
+        <v>-0.004710964113456033</v>
       </c>
       <c r="C20">
-        <v>-0.02932612867947397</v>
+        <v>-0.04617653346117634</v>
       </c>
       <c r="D20">
-        <v>0.05629514726949084</v>
+        <v>-0.06380126043714483</v>
       </c>
       <c r="E20">
-        <v>0.06575699658342235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.06239292485876409</v>
+      </c>
+      <c r="F20">
+        <v>-0.02364805219165269</v>
+      </c>
+      <c r="G20">
+        <v>-0.01447115753784465</v>
+      </c>
+      <c r="H20">
+        <v>0.02892693830978818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001639974927784034</v>
+        <v>-0.001505370122783396</v>
       </c>
       <c r="C21">
-        <v>-0.03532166618686994</v>
+        <v>-0.0477690280329947</v>
       </c>
       <c r="D21">
-        <v>0.08778539905701221</v>
+        <v>-0.09248563366452367</v>
       </c>
       <c r="E21">
-        <v>0.1442728470183485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.08537228720967363</v>
+      </c>
+      <c r="F21">
+        <v>-0.09734116294577767</v>
+      </c>
+      <c r="G21">
+        <v>0.06751473629396701</v>
+      </c>
+      <c r="H21">
+        <v>-0.08818116653302507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003459230995693602</v>
+        <v>0.00755437460634628</v>
       </c>
       <c r="C22">
-        <v>-0.05440603581086224</v>
+        <v>-0.08408437117480101</v>
       </c>
       <c r="D22">
-        <v>0.1934564841079973</v>
+        <v>-0.2055118922295678</v>
       </c>
       <c r="E22">
-        <v>0.1433871428372349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.1083107744483173</v>
+      </c>
+      <c r="F22">
+        <v>-0.05473345578391357</v>
+      </c>
+      <c r="G22">
+        <v>0.2260461450885866</v>
+      </c>
+      <c r="H22">
+        <v>0.1139831832352693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00388994455334074</v>
+        <v>0.004435323364149543</v>
       </c>
       <c r="C23">
-        <v>-0.05475052709611002</v>
+        <v>-0.08620993933446845</v>
       </c>
       <c r="D23">
-        <v>0.1923958702440737</v>
+        <v>-0.2088879247060766</v>
       </c>
       <c r="E23">
-        <v>0.143337969737786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.1057034423504847</v>
+      </c>
+      <c r="F23">
+        <v>-0.05734372989382429</v>
+      </c>
+      <c r="G23">
+        <v>0.2201314459474801</v>
+      </c>
+      <c r="H23">
+        <v>0.1077193580073342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0176337659900293</v>
+        <v>-0.01034471145097896</v>
       </c>
       <c r="C24">
-        <v>-0.06235759836555518</v>
+        <v>-0.07177546289375136</v>
       </c>
       <c r="D24">
-        <v>0.05571669578731166</v>
+        <v>-0.02960004427826538</v>
       </c>
       <c r="E24">
-        <v>0.01815113113482621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05474014031691088</v>
+      </c>
+      <c r="F24">
+        <v>0.003996907926637321</v>
+      </c>
+      <c r="G24">
+        <v>0.008500318646719037</v>
+      </c>
+      <c r="H24">
+        <v>0.01052959428667372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01699042758567324</v>
+        <v>-0.01434866074468873</v>
       </c>
       <c r="C25">
-        <v>-0.05404792123466658</v>
+        <v>-0.06584570012249562</v>
       </c>
       <c r="D25">
-        <v>0.04166889329819445</v>
+        <v>-0.03262339506530785</v>
       </c>
       <c r="E25">
-        <v>0.0163181927203881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03766898261636273</v>
+      </c>
+      <c r="F25">
+        <v>0.0021501712574477</v>
+      </c>
+      <c r="G25">
+        <v>-0.006281144973509956</v>
+      </c>
+      <c r="H25">
+        <v>0.007900067929999439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005459652681185678</v>
+        <v>-0.01699334422663246</v>
       </c>
       <c r="C26">
-        <v>-0.01966426892748624</v>
+        <v>-0.03313074672356227</v>
       </c>
       <c r="D26">
-        <v>0.04970307703820281</v>
+        <v>-0.03820324571522801</v>
       </c>
       <c r="E26">
-        <v>0.049949908496216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.07463923025939063</v>
+      </c>
+      <c r="F26">
+        <v>-0.0487741185659174</v>
+      </c>
+      <c r="G26">
+        <v>0.02509613828412407</v>
+      </c>
+      <c r="H26">
+        <v>-0.004014290436909334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2787146478435339</v>
+        <v>-0.3137311871057293</v>
       </c>
       <c r="C28">
-        <v>0.1694383980562857</v>
+        <v>0.08970712086515842</v>
       </c>
       <c r="D28">
-        <v>-0.01337107604588002</v>
+        <v>0.005827675679310491</v>
       </c>
       <c r="E28">
-        <v>0.0300790155878283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05496116217073137</v>
+      </c>
+      <c r="F28">
+        <v>-0.04716401032733753</v>
+      </c>
+      <c r="G28">
+        <v>0.0564093076402059</v>
+      </c>
+      <c r="H28">
+        <v>0.02637403987517254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005019535888740528</v>
+        <v>-0.0009599308297986541</v>
       </c>
       <c r="C29">
-        <v>-0.02337910241960145</v>
+        <v>-0.04025319302722866</v>
       </c>
       <c r="D29">
-        <v>0.0628526923997408</v>
+        <v>-0.07254877040285193</v>
       </c>
       <c r="E29">
-        <v>0.06096569003337517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1200199085446123</v>
+      </c>
+      <c r="F29">
+        <v>-0.04056840075674054</v>
+      </c>
+      <c r="G29">
+        <v>0.009665454947476622</v>
+      </c>
+      <c r="H29">
+        <v>-0.04542526243706256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02735132683972593</v>
+        <v>-0.01763004475877426</v>
       </c>
       <c r="C30">
-        <v>-0.07640181555889325</v>
+        <v>-0.1002445571246844</v>
       </c>
       <c r="D30">
-        <v>0.1351316139252456</v>
+        <v>-0.09621015230840553</v>
       </c>
       <c r="E30">
-        <v>0.09393931506971122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.110097714443927</v>
+      </c>
+      <c r="F30">
+        <v>-0.01772475278607836</v>
+      </c>
+      <c r="G30">
+        <v>0.01955685235726394</v>
+      </c>
+      <c r="H30">
+        <v>0.04311741061910557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03212048296550652</v>
+        <v>-0.01044929262618315</v>
       </c>
       <c r="C31">
-        <v>-0.08492387724953024</v>
+        <v>-0.09551838178690122</v>
       </c>
       <c r="D31">
-        <v>0.0458477970297171</v>
+        <v>-0.02402650590598325</v>
       </c>
       <c r="E31">
-        <v>0.03422774757314047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.03124077354691639</v>
+      </c>
+      <c r="F31">
+        <v>-0.02006252684290995</v>
+      </c>
+      <c r="G31">
+        <v>0.02017764282536723</v>
+      </c>
+      <c r="H31">
+        <v>0.004431756577206221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01517440372380313</v>
+        <v>-0.01250892323403939</v>
       </c>
       <c r="C32">
-        <v>-0.04354361605536943</v>
+        <v>-0.05244322618416153</v>
       </c>
       <c r="D32">
-        <v>0.07411203400177901</v>
+        <v>-0.07734204705106668</v>
       </c>
       <c r="E32">
-        <v>0.09319276547589996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02696836361717108</v>
+      </c>
+      <c r="F32">
+        <v>-0.05267862479212958</v>
+      </c>
+      <c r="G32">
+        <v>0.0322664907625678</v>
+      </c>
+      <c r="H32">
+        <v>-0.02971583824602643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005002673126680474</v>
+        <v>-0.006951796166040741</v>
       </c>
       <c r="C33">
-        <v>-0.04285484751348993</v>
+        <v>-0.06562969681587234</v>
       </c>
       <c r="D33">
-        <v>0.08837007767463954</v>
+        <v>-0.08820927377020782</v>
       </c>
       <c r="E33">
-        <v>0.08412934125944715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.08720102993745871</v>
+      </c>
+      <c r="F33">
+        <v>-0.03440536554881669</v>
+      </c>
+      <c r="G33">
+        <v>0.009877023281782034</v>
+      </c>
+      <c r="H33">
+        <v>-0.001198951373904818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01427868956845815</v>
+        <v>-0.008907607812944663</v>
       </c>
       <c r="C34">
-        <v>-0.06130687670827534</v>
+        <v>-0.06279972816259423</v>
       </c>
       <c r="D34">
-        <v>0.05495989142935047</v>
+        <v>-0.01382801704913323</v>
       </c>
       <c r="E34">
-        <v>-0.02773979305719017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03814851381140207</v>
+      </c>
+      <c r="F34">
+        <v>0.03723763713129965</v>
+      </c>
+      <c r="G34">
+        <v>0.006730617511823004</v>
+      </c>
+      <c r="H34">
+        <v>-0.002424766746574361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0001982586844526087</v>
+        <v>-0.004226630411793994</v>
       </c>
       <c r="C35">
-        <v>-0.001089036592105895</v>
+        <v>-0.01593185357425782</v>
       </c>
       <c r="D35">
-        <v>0.001319127675838429</v>
+        <v>-0.02863114251468436</v>
       </c>
       <c r="E35">
-        <v>-8.389263242905515e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.03141475188905693</v>
+      </c>
+      <c r="F35">
+        <v>-0.0237187389493335</v>
+      </c>
+      <c r="G35">
+        <v>0.0006067039074452475</v>
+      </c>
+      <c r="H35">
+        <v>-0.008477666290798172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006151091405080163</v>
+        <v>-0.01123528556692178</v>
       </c>
       <c r="C36">
-        <v>-0.01075950870524794</v>
+        <v>-0.02530140285596076</v>
       </c>
       <c r="D36">
-        <v>0.04883952393082496</v>
+        <v>-0.05053607281501828</v>
       </c>
       <c r="E36">
-        <v>0.07360692590937451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06702893316794001</v>
+      </c>
+      <c r="F36">
+        <v>-0.05156139637041763</v>
+      </c>
+      <c r="G36">
+        <v>0.01173399959720002</v>
+      </c>
+      <c r="H36">
+        <v>-0.003707683034273563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001347670310921113</v>
+        <v>-0.007842353416564501</v>
       </c>
       <c r="C38">
-        <v>-0.01041758239683753</v>
+        <v>-0.03037981546995377</v>
       </c>
       <c r="D38">
-        <v>0.08104399058823226</v>
+        <v>-0.07646074142500302</v>
       </c>
       <c r="E38">
-        <v>0.05443399485707336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.06470530156066136</v>
+      </c>
+      <c r="F38">
+        <v>-0.01156158296660655</v>
+      </c>
+      <c r="G38">
+        <v>0.03012906844643702</v>
+      </c>
+      <c r="H38">
+        <v>0.04035303755829373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01200855000519019</v>
+        <v>-0.00646035095294276</v>
       </c>
       <c r="C39">
-        <v>-0.0634721930410433</v>
+        <v>-0.08903034607312282</v>
       </c>
       <c r="D39">
-        <v>0.09950266343449056</v>
+        <v>-0.06514347513530086</v>
       </c>
       <c r="E39">
-        <v>0.04738879295531501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.1012359846178966</v>
+      </c>
+      <c r="F39">
+        <v>0.002523088311143317</v>
+      </c>
+      <c r="G39">
+        <v>0.004329676346670202</v>
+      </c>
+      <c r="H39">
+        <v>0.003195164288024773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01534631753405321</v>
+        <v>-0.01306499776792657</v>
       </c>
       <c r="C40">
-        <v>-0.02940401369522674</v>
+        <v>-0.0432239508301725</v>
       </c>
       <c r="D40">
-        <v>0.1047097123885627</v>
+        <v>-0.06684118280786377</v>
       </c>
       <c r="E40">
-        <v>0.04007975220246564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07709587999982252</v>
+      </c>
+      <c r="F40">
+        <v>0.02321815623578134</v>
+      </c>
+      <c r="G40">
+        <v>0.08194014991098598</v>
+      </c>
+      <c r="H40">
+        <v>-0.01481648209165683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007773531939846984</v>
+        <v>-0.01706781262674574</v>
       </c>
       <c r="C41">
-        <v>-0.006710338970825668</v>
+        <v>-0.02479700758200196</v>
       </c>
       <c r="D41">
-        <v>0.0221801634313122</v>
+        <v>-0.03615017955262013</v>
       </c>
       <c r="E41">
-        <v>0.03243042484150505</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02396958073668569</v>
+      </c>
+      <c r="F41">
+        <v>-0.02079129164748578</v>
+      </c>
+      <c r="G41">
+        <v>0.004153565971119571</v>
+      </c>
+      <c r="H41">
+        <v>0.003989282151985459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.004353013114284532</v>
+        <v>-0.008280820540634407</v>
       </c>
       <c r="C43">
-        <v>-0.003087911265422998</v>
+        <v>-0.01785443320716604</v>
       </c>
       <c r="D43">
-        <v>0.03735812452178662</v>
+        <v>-0.04470192823721057</v>
       </c>
       <c r="E43">
-        <v>0.04335230880285922</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03965588366792658</v>
+      </c>
+      <c r="F43">
+        <v>-0.02683229929419203</v>
+      </c>
+      <c r="G43">
+        <v>0.005233284061252331</v>
+      </c>
+      <c r="H43">
+        <v>0.01589864899647614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01830687554722141</v>
+        <v>-0.009658942279267313</v>
       </c>
       <c r="C44">
-        <v>-0.03205604434978765</v>
+        <v>-0.05275256669790296</v>
       </c>
       <c r="D44">
-        <v>0.08125241200767988</v>
+        <v>-0.07874122019798827</v>
       </c>
       <c r="E44">
-        <v>0.1019645507144812</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.09012921570607262</v>
+      </c>
+      <c r="F44">
+        <v>-0.03808162841709119</v>
+      </c>
+      <c r="G44">
+        <v>0.03947659737577828</v>
+      </c>
+      <c r="H44">
+        <v>0.0235082104233858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.001727856053224641</v>
+        <v>0.0007146116457738222</v>
       </c>
       <c r="C46">
-        <v>-0.03238618174251706</v>
+        <v>-0.04300102815124279</v>
       </c>
       <c r="D46">
-        <v>0.06835115562901047</v>
+        <v>-0.0469921468751273</v>
       </c>
       <c r="E46">
-        <v>0.05700298117890656</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.09224593289798103</v>
+      </c>
+      <c r="F46">
+        <v>-0.03708587562965508</v>
+      </c>
+      <c r="G46">
+        <v>0.02147060010855542</v>
+      </c>
+      <c r="H46">
+        <v>-0.003087598084912282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06742952583420761</v>
+        <v>-0.03090595947664956</v>
       </c>
       <c r="C47">
-        <v>-0.1137490804395673</v>
+        <v>-0.1245239532298024</v>
       </c>
       <c r="D47">
-        <v>0.05180072721442874</v>
+        <v>-0.02018152421124511</v>
       </c>
       <c r="E47">
-        <v>0.03757895693247826</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006073099760553393</v>
+      </c>
+      <c r="F47">
+        <v>-0.0005025648027548909</v>
+      </c>
+      <c r="G47">
+        <v>-0.01305548684266847</v>
+      </c>
+      <c r="H47">
+        <v>0.01330563010523728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004086643239824184</v>
+        <v>-0.01218697726756415</v>
       </c>
       <c r="C48">
-        <v>-0.01803393218834699</v>
+        <v>-0.03427711543930866</v>
       </c>
       <c r="D48">
-        <v>0.05164148297432863</v>
+        <v>-0.05440597534622885</v>
       </c>
       <c r="E48">
-        <v>0.07991082906195721</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.06898139278966947</v>
+      </c>
+      <c r="F48">
+        <v>-0.06161202216249517</v>
+      </c>
+      <c r="G48">
+        <v>0.02255006687206574</v>
+      </c>
+      <c r="H48">
+        <v>0.009238076056305829</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002566004917875761</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.001655821062805291</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001936018412560897</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0006889482076876968</v>
+      </c>
+      <c r="F49">
+        <v>0.002732375844134391</v>
+      </c>
+      <c r="G49">
+        <v>-0.006526132301945421</v>
+      </c>
+      <c r="H49">
+        <v>-0.00457243700111378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03089752428233867</v>
+        <v>-0.01448214283041526</v>
       </c>
       <c r="C50">
-        <v>-0.05878103917568474</v>
+        <v>-0.07564528959322009</v>
       </c>
       <c r="D50">
-        <v>0.0627083699688694</v>
+        <v>-0.040086677712961</v>
       </c>
       <c r="E50">
-        <v>0.03818547386517117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.04024223010415869</v>
+      </c>
+      <c r="F50">
+        <v>-0.01308776149859101</v>
+      </c>
+      <c r="G50">
+        <v>0.01453510681364079</v>
+      </c>
+      <c r="H50">
+        <v>0.01380986386774778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005722468762526492</v>
+        <v>0.003905227387807368</v>
       </c>
       <c r="C51">
-        <v>-0.006150947069015976</v>
+        <v>-0.01845150084044149</v>
       </c>
       <c r="D51">
-        <v>0.04991496692459051</v>
+        <v>-0.02859283582557563</v>
       </c>
       <c r="E51">
-        <v>0.04400872948721586</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.06154266201186644</v>
+      </c>
+      <c r="F51">
+        <v>-0.0370532548485743</v>
+      </c>
+      <c r="G51">
+        <v>0.04591468467013289</v>
+      </c>
+      <c r="H51">
+        <v>-0.001401041485111658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1031010742548251</v>
+        <v>-0.05929609004310185</v>
       </c>
       <c r="C53">
-        <v>-0.1368269879312174</v>
+        <v>-0.1635896128509751</v>
       </c>
       <c r="D53">
-        <v>-0.007244777458625556</v>
+        <v>0.01948379801865647</v>
       </c>
       <c r="E53">
-        <v>0.03502251278366249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02771305253354756</v>
+      </c>
+      <c r="F53">
+        <v>-0.03958405839511482</v>
+      </c>
+      <c r="G53">
+        <v>0.007705556817805005</v>
+      </c>
+      <c r="H53">
+        <v>0.008097378838317862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004266653729041539</v>
+        <v>-0.01028715782548811</v>
       </c>
       <c r="C54">
-        <v>-0.02499635273638822</v>
+        <v>-0.04120613290384718</v>
       </c>
       <c r="D54">
-        <v>0.08309991658340887</v>
+        <v>-0.06655930016444862</v>
       </c>
       <c r="E54">
-        <v>0.05519942394328426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.06029949609735958</v>
+      </c>
+      <c r="F54">
+        <v>-0.01422034380171239</v>
+      </c>
+      <c r="G54">
+        <v>0.02612211677126492</v>
+      </c>
+      <c r="H54">
+        <v>0.02219003256303641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08531054033947001</v>
+        <v>-0.04199425900341033</v>
       </c>
       <c r="C55">
-        <v>-0.1124474340054069</v>
+        <v>-0.128328012501821</v>
       </c>
       <c r="D55">
-        <v>0.00139027348609358</v>
+        <v>0.04691993259465452</v>
       </c>
       <c r="E55">
-        <v>-0.009632767308773032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.01210645026784809</v>
+      </c>
+      <c r="F55">
+        <v>-0.001356975807299864</v>
+      </c>
+      <c r="G55">
+        <v>0.01973896827774638</v>
+      </c>
+      <c r="H55">
+        <v>-0.00127805843302578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.125027732187106</v>
+        <v>-0.05956420312403393</v>
       </c>
       <c r="C56">
-        <v>-0.1626608912448174</v>
+        <v>-0.1932813170412208</v>
       </c>
       <c r="D56">
-        <v>0.02025942052728351</v>
+        <v>0.04357992781967705</v>
       </c>
       <c r="E56">
-        <v>-0.0137813596871399</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03947526880600851</v>
+      </c>
+      <c r="F56">
+        <v>-0.0007043152226445403</v>
+      </c>
+      <c r="G56">
+        <v>0.07025546029964445</v>
+      </c>
+      <c r="H56">
+        <v>0.007594776990325821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.005490180108316338</v>
+        <v>-0.009629467567472542</v>
       </c>
       <c r="C58">
-        <v>-0.0255841282262584</v>
+        <v>-0.07081368363567542</v>
       </c>
       <c r="D58">
-        <v>0.1861139312474682</v>
+        <v>-0.2374787005742187</v>
       </c>
       <c r="E58">
-        <v>0.2282946851553131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.1344022338980341</v>
+      </c>
+      <c r="F58">
+        <v>-0.1520077361433098</v>
+      </c>
+      <c r="G58">
+        <v>0.1577546157846323</v>
+      </c>
+      <c r="H58">
+        <v>0.08013765695947259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2040165173024324</v>
+        <v>-0.2601043793374019</v>
       </c>
       <c r="C59">
-        <v>0.1224809437891255</v>
+        <v>0.0550117556880671</v>
       </c>
       <c r="D59">
-        <v>0.04450446217631585</v>
+        <v>-0.04283367412568202</v>
       </c>
       <c r="E59">
-        <v>0.04915904388443748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.006684733909480364</v>
+      </c>
+      <c r="F59">
+        <v>-0.02266730227558591</v>
+      </c>
+      <c r="G59">
+        <v>0.03383781892717479</v>
+      </c>
+      <c r="H59">
+        <v>-0.03603973785933618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1755370661293582</v>
+        <v>-0.151526167251051</v>
       </c>
       <c r="C60">
-        <v>-0.1114183295178496</v>
+        <v>-0.1681405253489886</v>
       </c>
       <c r="D60">
-        <v>0.1298854385202664</v>
+        <v>-0.02370015446893856</v>
       </c>
       <c r="E60">
-        <v>-0.05847111211611077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1063407105195676</v>
+      </c>
+      <c r="F60">
+        <v>0.2061425284547503</v>
+      </c>
+      <c r="G60">
+        <v>-0.2441067322673795</v>
+      </c>
+      <c r="H60">
+        <v>-0.1386884109339564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02004384492700233</v>
+        <v>-0.0128870477106419</v>
       </c>
       <c r="C61">
-        <v>-0.0604873520107003</v>
+        <v>-0.08259501923041836</v>
       </c>
       <c r="D61">
-        <v>0.07172794257736274</v>
+        <v>-0.04239765194968709</v>
       </c>
       <c r="E61">
-        <v>0.02323217675368563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.07206372785313787</v>
+      </c>
+      <c r="F61">
+        <v>0.009682189921308208</v>
+      </c>
+      <c r="G61">
+        <v>0.001113323906032935</v>
+      </c>
+      <c r="H61">
+        <v>-0.0003858622466462006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009893531273312927</v>
+        <v>-0.01607652052201939</v>
       </c>
       <c r="C63">
-        <v>-0.02744988118440534</v>
+        <v>-0.04635860630051111</v>
       </c>
       <c r="D63">
-        <v>0.0715156831059426</v>
+        <v>-0.03653339282540352</v>
       </c>
       <c r="E63">
-        <v>0.05304314785488817</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.09042944756192081</v>
+      </c>
+      <c r="F63">
+        <v>-0.02288744412133473</v>
+      </c>
+      <c r="G63">
+        <v>0.005460311291586348</v>
+      </c>
+      <c r="H63">
+        <v>0.002644239989147126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04636551659963626</v>
+        <v>-0.01506043102587447</v>
       </c>
       <c r="C64">
-        <v>-0.09591418472631613</v>
+        <v>-0.1048736075181288</v>
       </c>
       <c r="D64">
-        <v>0.01582343876424041</v>
+        <v>-0.005677838827867595</v>
       </c>
       <c r="E64">
-        <v>0.03373014395861425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03272397516976458</v>
+      </c>
+      <c r="F64">
+        <v>-0.02223280278570004</v>
+      </c>
+      <c r="G64">
+        <v>-0.02810846118622119</v>
+      </c>
+      <c r="H64">
+        <v>0.03837431250695757</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02551494339346751</v>
+        <v>-0.02627497961199499</v>
       </c>
       <c r="C65">
-        <v>-0.0177004680344007</v>
+        <v>-0.04506336518116238</v>
       </c>
       <c r="D65">
-        <v>0.08951355494855663</v>
+        <v>-0.08878602600968821</v>
       </c>
       <c r="E65">
-        <v>0.05979126364375478</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.08409151100933579</v>
+      </c>
+      <c r="F65">
+        <v>0.007624283860247414</v>
+      </c>
+      <c r="G65">
+        <v>-0.05857584304379236</v>
+      </c>
+      <c r="H65">
+        <v>0.01717255370235775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01998459079476278</v>
+        <v>-0.007593188953234836</v>
       </c>
       <c r="C66">
-        <v>-0.0764547446535894</v>
+        <v>-0.1113876120494676</v>
       </c>
       <c r="D66">
-        <v>0.1194141797445678</v>
+        <v>-0.09152945570266134</v>
       </c>
       <c r="E66">
-        <v>0.05170408119087674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.09932199289879801</v>
+      </c>
+      <c r="F66">
+        <v>0.004568820088493854</v>
+      </c>
+      <c r="G66">
+        <v>0.02447605573725067</v>
+      </c>
+      <c r="H66">
+        <v>0.009605992204787278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01520294480103703</v>
+        <v>-0.01721573588993248</v>
       </c>
       <c r="C67">
-        <v>-0.01989944434668474</v>
+        <v>-0.03751412006487471</v>
       </c>
       <c r="D67">
-        <v>0.05017388398987364</v>
+        <v>-0.04022099123865059</v>
       </c>
       <c r="E67">
-        <v>0.01032753673320823</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.04786727171739174</v>
+      </c>
+      <c r="F67">
+        <v>0.01890266219743722</v>
+      </c>
+      <c r="G67">
+        <v>0.00625926668451206</v>
+      </c>
+      <c r="H67">
+        <v>0.03086825063892703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2131295515195301</v>
+        <v>-0.2784533250689922</v>
       </c>
       <c r="C68">
-        <v>0.1335715412716771</v>
+        <v>0.06709587483431476</v>
       </c>
       <c r="D68">
-        <v>0.02266531101317294</v>
+        <v>-0.03552843052978808</v>
       </c>
       <c r="E68">
-        <v>0.03268096629829432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01320915539816292</v>
+      </c>
+      <c r="F68">
+        <v>-0.02534395883874527</v>
+      </c>
+      <c r="G68">
+        <v>0.04298351620890706</v>
+      </c>
+      <c r="H68">
+        <v>-0.007601279334815704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04928998671048974</v>
+        <v>-0.01479908975555982</v>
       </c>
       <c r="C69">
-        <v>-0.1162096806303328</v>
+        <v>-0.1104495306710177</v>
       </c>
       <c r="D69">
-        <v>0.06543791116959476</v>
+        <v>-0.01577957420550585</v>
       </c>
       <c r="E69">
-        <v>0.04576731737353591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01506798010032935</v>
+      </c>
+      <c r="F69">
+        <v>0.008428204356360739</v>
+      </c>
+      <c r="G69">
+        <v>-0.007533727574958042</v>
+      </c>
+      <c r="H69">
+        <v>-0.004529782803529045</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2328277107434028</v>
+        <v>-0.2716619296030454</v>
       </c>
       <c r="C71">
-        <v>0.1560518327111104</v>
+        <v>0.0819435107168911</v>
       </c>
       <c r="D71">
-        <v>0.01665832725597435</v>
+        <v>-0.01211522973632445</v>
       </c>
       <c r="E71">
-        <v>0.007457454914852584</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0056229821659767</v>
+      </c>
+      <c r="F71">
+        <v>-0.01336485905648464</v>
+      </c>
+      <c r="G71">
+        <v>0.04266653941698888</v>
+      </c>
+      <c r="H71">
+        <v>0.01825949667111763</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09742653811248007</v>
+        <v>-0.06324103958182101</v>
       </c>
       <c r="C72">
-        <v>-0.07918676186662248</v>
+        <v>-0.1243377206841303</v>
       </c>
       <c r="D72">
-        <v>0.0976410815569721</v>
+        <v>-0.03787099566887087</v>
       </c>
       <c r="E72">
-        <v>0.04657392517358568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08587803568004077</v>
+      </c>
+      <c r="F72">
+        <v>0.01731738538965819</v>
+      </c>
+      <c r="G72">
+        <v>-0.03716046794763389</v>
+      </c>
+      <c r="H72">
+        <v>-0.006498374674540025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1735386049926737</v>
+        <v>-0.1576479683923303</v>
       </c>
       <c r="C73">
-        <v>-0.08739836386617306</v>
+        <v>-0.1697577624779583</v>
       </c>
       <c r="D73">
-        <v>0.1981142436121121</v>
+        <v>-0.02373523381829738</v>
       </c>
       <c r="E73">
-        <v>-0.09826882294400464</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2542488498773676</v>
+      </c>
+      <c r="F73">
+        <v>0.3255021934926575</v>
+      </c>
+      <c r="G73">
+        <v>-0.4142674698516859</v>
+      </c>
+      <c r="H73">
+        <v>-0.1430948931565315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09848752229811898</v>
+        <v>-0.05215602998834372</v>
       </c>
       <c r="C74">
-        <v>-0.1210166190930134</v>
+        <v>-0.140601712545899</v>
       </c>
       <c r="D74">
-        <v>-0.04955106194953432</v>
+        <v>0.04456026673487903</v>
       </c>
       <c r="E74">
-        <v>0.006060688213610228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03805989163208798</v>
+      </c>
+      <c r="F74">
+        <v>-0.03277677316121273</v>
+      </c>
+      <c r="G74">
+        <v>-0.004397099945911019</v>
+      </c>
+      <c r="H74">
+        <v>-6.710443175623402e-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2109051465794465</v>
+        <v>-0.09798717357570488</v>
       </c>
       <c r="C75">
-        <v>-0.2165603122073702</v>
+        <v>-0.2609015039051551</v>
       </c>
       <c r="D75">
-        <v>-0.03669805612694047</v>
+        <v>0.1050954180402278</v>
       </c>
       <c r="E75">
-        <v>-0.1059488196649528</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.133373667133536</v>
+      </c>
+      <c r="F75">
+        <v>0.05503644518680711</v>
+      </c>
+      <c r="G75">
+        <v>0.11482938954378</v>
+      </c>
+      <c r="H75">
+        <v>0.09282876487618939</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1279121175711518</v>
+        <v>-0.06072029454745711</v>
       </c>
       <c r="C76">
-        <v>-0.1460235762052741</v>
+        <v>-0.1774895599368137</v>
       </c>
       <c r="D76">
-        <v>0.01101817920859075</v>
+        <v>0.04336514205548844</v>
       </c>
       <c r="E76">
-        <v>-0.01482492027840189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04452078836596886</v>
+      </c>
+      <c r="F76">
+        <v>0.007100387243357651</v>
+      </c>
+      <c r="G76">
+        <v>0.04939429802528566</v>
+      </c>
+      <c r="H76">
+        <v>0.01877393995600025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004191714261142128</v>
+        <v>0.007288677002456083</v>
       </c>
       <c r="C77">
-        <v>-0.08517495593154238</v>
+        <v>-0.126093842536941</v>
       </c>
       <c r="D77">
-        <v>0.2036980072104796</v>
+        <v>-0.6471611353677562</v>
       </c>
       <c r="E77">
-        <v>0.22058971176728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.6740600198587624</v>
+      </c>
+      <c r="F77">
+        <v>0.1316931280958269</v>
+      </c>
+      <c r="G77">
+        <v>-0.1791923275793037</v>
+      </c>
+      <c r="H77">
+        <v>-0.005269536601115012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.031889319061732</v>
+        <v>-0.02201155269635631</v>
       </c>
       <c r="C78">
-        <v>-0.07962304774076456</v>
+        <v>-0.09716690450556101</v>
       </c>
       <c r="D78">
-        <v>0.1347382072543934</v>
+        <v>-0.06301867740101912</v>
       </c>
       <c r="E78">
-        <v>0.1213318034319828</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.1002991816085305</v>
+      </c>
+      <c r="F78">
+        <v>-0.04350057785024043</v>
+      </c>
+      <c r="G78">
+        <v>0.105625666893444</v>
+      </c>
+      <c r="H78">
+        <v>-0.0362870991441347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1084888801913956</v>
+        <v>-0.05126455316356737</v>
       </c>
       <c r="C79">
-        <v>-0.2146781068815465</v>
+        <v>-0.2176104098841706</v>
       </c>
       <c r="D79">
-        <v>-0.6450156014548989</v>
+        <v>0.1465014089433871</v>
       </c>
       <c r="E79">
-        <v>0.6262799008411918</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1191674078259499</v>
+      </c>
+      <c r="F79">
+        <v>-0.7674768832716286</v>
+      </c>
+      <c r="G79">
+        <v>-0.4588311896402792</v>
+      </c>
+      <c r="H79">
+        <v>-0.02719208580376103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006556081019056818</v>
+        <v>-0.008791491364429452</v>
       </c>
       <c r="C80">
-        <v>-0.04471270294450365</v>
+        <v>-0.04570954512171593</v>
       </c>
       <c r="D80">
-        <v>0.03112835109467469</v>
+        <v>-0.00861699242992002</v>
       </c>
       <c r="E80">
-        <v>-0.004632823259454427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06445041402980774</v>
+      </c>
+      <c r="F80">
+        <v>0.01243791201893815</v>
+      </c>
+      <c r="G80">
+        <v>-0.001778817132687691</v>
+      </c>
+      <c r="H80">
+        <v>-0.08049430982015963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09844410926318248</v>
+        <v>-0.03354329176653078</v>
       </c>
       <c r="C81">
-        <v>-0.1406567397195504</v>
+        <v>-0.1582355168396129</v>
       </c>
       <c r="D81">
-        <v>-0.07551920681475437</v>
+        <v>0.06691722282119947</v>
       </c>
       <c r="E81">
-        <v>-0.02371416838802579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0676741437736061</v>
+      </c>
+      <c r="F81">
+        <v>-0.0518267973082772</v>
+      </c>
+      <c r="G81">
+        <v>0.07061625786918381</v>
+      </c>
+      <c r="H81">
+        <v>-0.002156017593701758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2034724737196681</v>
+        <v>-0.077647862718861</v>
       </c>
       <c r="C82">
-        <v>-0.3064759556250064</v>
+        <v>-0.292104214697848</v>
       </c>
       <c r="D82">
-        <v>-0.054157849745801</v>
+        <v>0.1889650894904918</v>
       </c>
       <c r="E82">
-        <v>-0.2378716138084076</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1379540213993447</v>
+      </c>
+      <c r="F82">
+        <v>0.1073804655406093</v>
+      </c>
+      <c r="G82">
+        <v>0.1639713294316324</v>
+      </c>
+      <c r="H82">
+        <v>0.01070539728018241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01356849897995408</v>
+        <v>0.007338474567571461</v>
       </c>
       <c r="C83">
-        <v>-0.04908408440937792</v>
+        <v>-0.01675987973210851</v>
       </c>
       <c r="D83">
-        <v>-0.005334623484174563</v>
+        <v>-0.02329394935676211</v>
       </c>
       <c r="E83">
-        <v>0.03886265103503546</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09421438384789091</v>
+      </c>
+      <c r="F83">
+        <v>-0.09996700269287929</v>
+      </c>
+      <c r="G83">
+        <v>0.2558596289450177</v>
+      </c>
+      <c r="H83">
+        <v>-0.9007390164275325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001153305138687292</v>
+        <v>0.004657461723613769</v>
       </c>
       <c r="C84">
-        <v>-0.004328931717503059</v>
+        <v>-0.01591501626826084</v>
       </c>
       <c r="D84">
-        <v>0.01046842956369443</v>
+        <v>-0.03776835024000454</v>
       </c>
       <c r="E84">
-        <v>0.003708592052466785</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.03407187029220619</v>
+      </c>
+      <c r="F84">
+        <v>-0.03620659108213771</v>
+      </c>
+      <c r="G84">
+        <v>0.05765143266737229</v>
+      </c>
+      <c r="H84">
+        <v>0.05960310058491392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1273180448995279</v>
+        <v>-0.05469793757618922</v>
       </c>
       <c r="C85">
-        <v>-0.1549217649990617</v>
+        <v>-0.1771212069717732</v>
       </c>
       <c r="D85">
-        <v>-0.08991688858152591</v>
+        <v>0.1176996620382652</v>
       </c>
       <c r="E85">
-        <v>-0.02299044629951114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.03977925727994776</v>
+      </c>
+      <c r="F85">
+        <v>-0.05358383097857965</v>
+      </c>
+      <c r="G85">
+        <v>0.01898591173229698</v>
+      </c>
+      <c r="H85">
+        <v>0.02435265882440149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02262461819421585</v>
+        <v>-0.01554860157486498</v>
       </c>
       <c r="C86">
-        <v>-0.0155632146657556</v>
+        <v>-0.04416930646538308</v>
       </c>
       <c r="D86">
-        <v>0.09708719244989676</v>
+        <v>-0.09914144314591387</v>
       </c>
       <c r="E86">
-        <v>0.06662709910078309</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02505976262405957</v>
+      </c>
+      <c r="F86">
+        <v>-0.02385724768552913</v>
+      </c>
+      <c r="G86">
+        <v>0.006856760076605461</v>
+      </c>
+      <c r="H86">
+        <v>0.02111248192637614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02134000405877014</v>
+        <v>-0.01038429481210492</v>
       </c>
       <c r="C87">
-        <v>-0.03975392674397517</v>
+        <v>-0.06847543106105999</v>
       </c>
       <c r="D87">
-        <v>0.1164128432590005</v>
+        <v>-0.1113332849352301</v>
       </c>
       <c r="E87">
-        <v>0.1174916315210342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07796485414459184</v>
+      </c>
+      <c r="F87">
+        <v>-0.04850301725768975</v>
+      </c>
+      <c r="G87">
+        <v>0.08113999839573981</v>
+      </c>
+      <c r="H87">
+        <v>0.006429403294710975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04590980424489947</v>
+        <v>-0.03370946343445305</v>
       </c>
       <c r="C88">
-        <v>-0.04794351679495473</v>
+        <v>-0.07111203595078706</v>
       </c>
       <c r="D88">
-        <v>0.0109230421154317</v>
+        <v>-0.01713455755922596</v>
       </c>
       <c r="E88">
-        <v>0.03484642191706976</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.04004179723107335</v>
+      </c>
+      <c r="F88">
+        <v>-0.02394081453130736</v>
+      </c>
+      <c r="G88">
+        <v>-0.01703983963260061</v>
+      </c>
+      <c r="H88">
+        <v>0.004684523889802707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3471083223871887</v>
+        <v>-0.3995019367616687</v>
       </c>
       <c r="C89">
-        <v>0.2941308881413738</v>
+        <v>0.1627335892364169</v>
       </c>
       <c r="D89">
-        <v>0.01031863644754318</v>
+        <v>-0.05217152591947259</v>
       </c>
       <c r="E89">
-        <v>0.1301476799022847</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01620824776217075</v>
+      </c>
+      <c r="F89">
+        <v>-0.08049514696078303</v>
+      </c>
+      <c r="G89">
+        <v>0.08792643969681671</v>
+      </c>
+      <c r="H89">
+        <v>-0.05853504658800634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2780236483716537</v>
+        <v>-0.3230617761404044</v>
       </c>
       <c r="C90">
-        <v>0.2122587059383261</v>
+        <v>0.1032006057027924</v>
       </c>
       <c r="D90">
-        <v>0.06147729421588246</v>
+        <v>-0.03497461902194498</v>
       </c>
       <c r="E90">
-        <v>0.02815945345281502</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007898456500685849</v>
+      </c>
+      <c r="F90">
+        <v>0.006139215623694531</v>
+      </c>
+      <c r="G90">
+        <v>0.05162369714568946</v>
+      </c>
+      <c r="H90">
+        <v>-0.005694075012943865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1336743401784047</v>
+        <v>-0.06402780144548571</v>
       </c>
       <c r="C91">
-        <v>-0.1982749211145401</v>
+        <v>-0.2015656214389841</v>
       </c>
       <c r="D91">
-        <v>-0.0960910316840573</v>
+        <v>0.08494382515896272</v>
       </c>
       <c r="E91">
-        <v>0.01738380803934995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09925266939495916</v>
+      </c>
+      <c r="F91">
+        <v>-0.05822552612895429</v>
+      </c>
+      <c r="G91">
+        <v>0.01194111696280348</v>
+      </c>
+      <c r="H91">
+        <v>-0.01800797575614479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2648344077733019</v>
+        <v>-0.3376518499600776</v>
       </c>
       <c r="C92">
-        <v>0.2402011104061025</v>
+        <v>0.1433108956680016</v>
       </c>
       <c r="D92">
-        <v>-0.03262627218830203</v>
+        <v>-0.04341704658025013</v>
       </c>
       <c r="E92">
-        <v>0.02966877369490015</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.05346903381825169</v>
+      </c>
+      <c r="F92">
+        <v>-0.04599547721941381</v>
+      </c>
+      <c r="G92">
+        <v>0.008059671236744502</v>
+      </c>
+      <c r="H92">
+        <v>0.1244728146359376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2960781943820305</v>
+        <v>-0.329383327951861</v>
       </c>
       <c r="C93">
-        <v>0.2176939177318584</v>
+        <v>0.1169138625836317</v>
       </c>
       <c r="D93">
-        <v>-0.02105179106326176</v>
+        <v>0.02448002292315108</v>
       </c>
       <c r="E93">
-        <v>-0.02035843404361505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001703912452133938</v>
+      </c>
+      <c r="F93">
+        <v>-0.005458657220365102</v>
+      </c>
+      <c r="G93">
+        <v>-0.02525205677576985</v>
+      </c>
+      <c r="H93">
+        <v>0.02693108523078127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.248409017812582</v>
+        <v>-0.1199223977673225</v>
       </c>
       <c r="C94">
-        <v>-0.28460233257048</v>
+        <v>-0.3172159125250313</v>
       </c>
       <c r="D94">
-        <v>-0.1372061696607413</v>
+        <v>0.307897416863761</v>
       </c>
       <c r="E94">
-        <v>-0.3274658813964701</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.2044474222489013</v>
+      </c>
+      <c r="F94">
+        <v>0.1513315012401276</v>
+      </c>
+      <c r="G94">
+        <v>0.2944122259856861</v>
+      </c>
+      <c r="H94">
+        <v>0.1060092900621917</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002710665360679858</v>
+        <v>-0.01363608280875383</v>
       </c>
       <c r="C95">
-        <v>-0.05458075473885361</v>
+        <v>-0.07826197097561387</v>
       </c>
       <c r="D95">
-        <v>0.1035474894387313</v>
+        <v>-0.1479784190660145</v>
       </c>
       <c r="E95">
-        <v>0.08900913734791928</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.05399238258560114</v>
+      </c>
+      <c r="F95">
+        <v>0.02508382044345166</v>
+      </c>
+      <c r="G95">
+        <v>-0.03771656715811854</v>
+      </c>
+      <c r="H95">
+        <v>0.0672669191924621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002438654015191916</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0006796607910771529</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0002044324946855692</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003130672925736309</v>
+      </c>
+      <c r="F97">
+        <v>-0.0006227096565882997</v>
+      </c>
+      <c r="G97">
+        <v>0.0007068430845793526</v>
+      </c>
+      <c r="H97">
+        <v>0.005203535136961409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1455180137515954</v>
+        <v>-0.1326987375949723</v>
       </c>
       <c r="C98">
-        <v>-0.1030197001666315</v>
+        <v>-0.1655180904852488</v>
       </c>
       <c r="D98">
-        <v>0.1394497613706014</v>
+        <v>0.0009430425407142526</v>
       </c>
       <c r="E98">
-        <v>-0.1027934910511307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1572527811508733</v>
+      </c>
+      <c r="F98">
+        <v>0.2642471115001442</v>
+      </c>
+      <c r="G98">
+        <v>-0.3055820459388095</v>
+      </c>
+      <c r="H98">
+        <v>-0.128158840370023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004177773192663488</v>
+        <v>-0.001052552547369529</v>
       </c>
       <c r="C101">
-        <v>-0.02255988291164403</v>
+        <v>-0.03937296464116622</v>
       </c>
       <c r="D101">
-        <v>0.06273603250458983</v>
+        <v>-0.07224677834989739</v>
       </c>
       <c r="E101">
-        <v>0.06152172475194743</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1186293214316165</v>
+      </c>
+      <c r="F101">
+        <v>-0.03992981393857034</v>
+      </c>
+      <c r="G101">
+        <v>0.009788192837496131</v>
+      </c>
+      <c r="H101">
+        <v>-0.0450017115484419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08297588733209184</v>
+        <v>-0.01850408897819597</v>
       </c>
       <c r="C102">
-        <v>-0.164950606586994</v>
+        <v>-0.135531766031576</v>
       </c>
       <c r="D102">
-        <v>0.008483069997037363</v>
+        <v>0.07771239234805602</v>
       </c>
       <c r="E102">
-        <v>-0.1005375912265979</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.07131800251088935</v>
+      </c>
+      <c r="F102">
+        <v>0.07997375174482756</v>
+      </c>
+      <c r="G102">
+        <v>0.02413237578491631</v>
+      </c>
+      <c r="H102">
+        <v>-0.02381347114520251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
